--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86370.39669975769</v>
+        <v>84482.81518335571</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>266.1512514744988</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>313.854113028218</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.69522927036854</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>130.8951884589056</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>255.0178582766937</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>240.0859847931592</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>90.27998741352613</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>220.2671969784633</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.82304018643383</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>161.2620823710465</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.69502478598744</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>213.4314888349098</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.18790282711389</v>
+        <v>25.82923535834103</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1938,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.5730311575335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>23.4728401430358</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>233.3212966356652</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>221.932349016858</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>36.88234405457752</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>193.8883348557948</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>94.94962312135416</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801227</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897923</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>41.90734288192793</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523587</v>
+        <v>54.76109577523564</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692757</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463316</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463128</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.745889830415</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.480191223665</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>747.6919386254203</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>740.7464378762169</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>322.7826297744037</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124028</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124028</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>186.160343900067</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>186.160343900067</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>186.160343900067</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>186.160343900067</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>186.160343900067</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1463.674302457628</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C5" t="n">
-        <v>1094.711785517216</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>736.4460869104657</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2278.460507581727</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1947.397620238156</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>1947.397620238156</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457628</v>
+        <v>1947.397620238156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1463.674302457628</v>
+        <v>1947.397620238156</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>145.1348882986737</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>145.1348882986737</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.990120852572</v>
+        <v>1258.850788876759</v>
       </c>
       <c r="C8" t="n">
-        <v>1648.990120852572</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1290.724422245821</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>904.9361696475769</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>493.9502648579693</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>75.9864567561562</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>75.9864567561562</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4847,7 +4847,7 @@
         <v>2035.589960916693</v>
       </c>
       <c r="Y8" t="n">
-        <v>2035.589960916693</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296041</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
         <v>542.1367719529251</v>
@@ -5230,19 +5230,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141521</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X13" t="n">
-        <v>1020.446367141521</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y13" t="n">
-        <v>799.653787997991</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.8631874464246</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768802</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X16" t="n">
-        <v>615.7499579788629</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="Y16" t="n">
-        <v>545.8631874464246</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341678</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119729</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119729</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119729</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.423997082768</v>
+        <v>506.8551071885428</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.423997082768</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>914.0067938933407</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>245.1301850426789</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1475.206331019482</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1475.206331019482</v>
       </c>
       <c r="U22" t="n">
-        <v>1263.238193148139</v>
+        <v>1475.206331019482</v>
       </c>
       <c r="V22" t="n">
-        <v>1263.238193148139</v>
+        <v>1220.521842813595</v>
       </c>
       <c r="W22" t="n">
-        <v>973.8210231111786</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="X22" t="n">
-        <v>745.8314722131613</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.8314722131613</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,19 +5999,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,67 +6209,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6391,43 +6391,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>755.1831334811262</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>559.336330596485</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542151</v>
+        <v>469.5113192794983</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076788</v>
+        <v>469.5113192794983</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076788</v>
+        <v>375.1555451485334</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2048840066563</v>
+        <v>283.0033168475111</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2048840066563</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="G31" t="n">
-        <v>234.2048840066563</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5477408359706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933496</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.33673373748</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818904</v>
+        <v>902.6804289818948</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652436</v>
+        <v>730.4517433652484</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030842</v>
+        <v>565.4200295030884</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,25 +6701,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108346</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229688</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506741</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083222</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504529</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103148</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982992</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045222</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010332</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6950,13 +6950,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7075,31 +7075,31 @@
         <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525396</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7178,22 +7178,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,19 +7254,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7394,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,19 +7567,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7819,7 +7819,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229568</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,10 +10431,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776746</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.13695539594985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>72.80586356366751</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.3967505249809</v>
+        <v>192.7554179937538</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.01162219456128</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>174.4479698405675</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>52.91605576291212</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>64.30500338171939</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>181.7023092975173</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>92.63466348079623</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>29.67910043202595</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965546</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437434</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.30864595378713</v>
+        <v>55.21598883571483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.735722689467546e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1096716.728174994</v>
+        <v>1096716.728174995</v>
       </c>
     </row>
     <row r="11">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="C2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>307890.6636991064</v>
       </c>
-      <c r="D2" t="n">
-        <v>307890.6636991063</v>
-      </c>
       <c r="E2" t="n">
-        <v>293271.7948032813</v>
+        <v>293271.7948032812</v>
       </c>
       <c r="F2" t="n">
+        <v>293271.7948032815</v>
+      </c>
+      <c r="G2" t="n">
         <v>293271.7948032814</v>
-      </c>
-      <c r="G2" t="n">
-        <v>293271.7948032815</v>
       </c>
       <c r="H2" t="n">
         <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032813</v>
       </c>
       <c r="J2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032813</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089523</v>
+        <v>305116.6030089525</v>
       </c>
       <c r="L2" t="n">
         <v>307890.6636991063</v>
@@ -26347,13 +26347,13 @@
         <v>307890.6636991062</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.419501919983305e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284552</v>
+        <v>44162.60530284573</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086704</v>
+        <v>10342.90680086678</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284552</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106719</v>
+        <v>40339.23010106728</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,34 +26473,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-530569.161365372</v>
+        <v>-530569.1613653719</v>
       </c>
       <c r="C6" t="n">
-        <v>59398.71784917251</v>
+        <v>59398.71784917239</v>
       </c>
       <c r="D6" t="n">
-        <v>59398.71784917243</v>
+        <v>59398.71784917254</v>
       </c>
       <c r="E6" t="n">
-        <v>-346050.175209202</v>
+        <v>-346147.6343351745</v>
       </c>
       <c r="F6" t="n">
-        <v>179109.861267694</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="G6" t="n">
-        <v>179109.8612676937</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="H6" t="n">
-        <v>179109.8612676944</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="I6" t="n">
-        <v>179109.861267694</v>
+        <v>179012.4021417218</v>
       </c>
       <c r="J6" t="n">
-        <v>2686.642075101205</v>
+        <v>2589.182949128866</v>
       </c>
       <c r="K6" t="n">
-        <v>123986.5590748168</v>
+        <v>123968.0653368823</v>
       </c>
       <c r="L6" t="n">
-        <v>155239.2562500226</v>
+        <v>155239.256250023</v>
       </c>
       <c r="M6" t="n">
         <v>30781.14781705246</v>
       </c>
       <c r="N6" t="n">
-        <v>165582.1630508896</v>
+        <v>165582.1630508897</v>
       </c>
       <c r="O6" t="n">
-        <v>165582.1630508899</v>
+        <v>165582.1630508898</v>
       </c>
       <c r="P6" t="n">
         <v>121419.5577480441</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541008</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108379</v>
+        <v>12.92863350108347</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>57.7715212898583</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>55.87698765025107</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>49.27039252196968</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>121.2424548649225</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>126.912511795568</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>11.13818271513011</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>77.02981484552478</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>145.0056947925443</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>130.1082760584274</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>63.77302308703773</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.01048066168073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30271,13 +30271,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879394</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734234</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415667</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315249</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507424</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412245</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043168</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.666887533699</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
